--- a/biology/Botanique/Rapateaceae/Rapateaceae.xlsx
+++ b/biology/Botanique/Rapateaceae/Rapateaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Rapateaceae est constituée de plantes monocotylédones ; elle comprend moins de cent espèces réparties en une vingtaine de genres.
 Ce sont des plantes herbacées rhizomateuses des régions tropicales.
-On les rencontre en Amérique du Sud, avec une seule espèce, Maschalocephalus dinklagei (en)[1] et en Afrique de l'Ouest.
+On les rencontre en Amérique du Sud, avec une seule espèce, Maschalocephalus dinklagei (en) et en Afrique de l'Ouest.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Rapatea dérivé probablement du nom Amérindien de la plante, en langue Wayampi, en Guinée française[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Rapatea dérivé probablement du nom Amérindien de la plante, en langue Wayampi, en Guinée française.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (21 avr. 2010)[3] et Angiosperm Phylogeny Website                        (19 mai 2010)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (21 avr. 2010) et Angiosperm Phylogeny Website                        (19 mai 2010) :
 genre Amphiphyllum (en) Gleason (1931)
 genre Cephalostemon (en) R.H.Schomb. (1845)
 genre Duckea (en) Maguire (1958)
@@ -564,7 +580,7 @@
 genre Spathanthus (en) Desv. (1828)
 genre Stegolepis (en) Klotzsch ex Körn. (1872)
 genre Windsorina (en) Gleason (1923)
-Selon NCBI  (21 avr. 2010)[5] :
+Selon NCBI  (21 avr. 2010) :
 genre Amphiphyllum
 genre Cephalostemon
 genre Epidryos
@@ -580,7 +596,7 @@
 genre Spathanthus
 genre Stegolepis
 genre Windsorina
-Selon DELTA Angio           (21 avr. 2010)[6] :
+Selon DELTA Angio           (21 avr. 2010) :
 genre Amphiphyllum
 genre Cephalostemon
 genre Duckea
@@ -625,9 +641,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (21 avr. 2010)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (21 avr. 2010) :
 genre Amphiphyllum Gleason (1931)
 Amphiphyllum rigidum Gleason (1931)
 genre Cephalostemon R.H.Schomb. (1845)
@@ -741,7 +759,7 @@
 Stegolepis wurdackii Maguire (1965)
 genre Windsorina Gleason (1923)
 Windsorina guianensis Gleason (1923)
-Selon NCBI  (21 avr. 2010)[5] :
+Selon NCBI  (21 avr. 2010) :
 genre Amphiphyllum
 Amphiphyllum rigidum
 genre Cephalostemon
